--- a/Files/data/xlsx_data/HAU_transects_2024.xlsx
+++ b/Files/data/xlsx_data/HAU_transects_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\BirdnetProject\Files\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\BirdnetProject\Files\data\xlsx_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49784BB0-87B1-46F8-9A4A-D5B6A73C01A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1B4E00-2247-4B87-B8C9-71B239E4D83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A68E7C4F-23C4-4DA4-ABF1-5919F7A0AABA}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A68E7C4F-23C4-4DA4-ABF1-5919F7A0AABA}"/>
   </bookViews>
   <sheets>
     <sheet name="transects" sheetId="1" r:id="rId1"/>
@@ -569,8 +569,8 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
